--- a/Src/Results/Request_distribution_instance_1_demand_high.xlsx
+++ b/Src/Results/Request_distribution_instance_1_demand_high.xlsx
@@ -470,13 +470,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -508,13 +508,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -565,10 +565,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -660,10 +660,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -812,13 +812,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -888,13 +888,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -964,13 +964,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1116,13 +1116,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1268,13 +1268,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1287,13 +1287,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -1382,13 +1382,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1401,10 +1401,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1515,13 +1515,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1534,13 +1534,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1553,13 +1553,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1572,13 +1572,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1610,13 +1610,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -1686,13 +1686,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1743,13 +1743,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -1781,10 +1781,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
@@ -1800,13 +1800,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -1876,13 +1876,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1990,13 +1990,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -2047,13 +2047,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2066,13 +2066,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -2218,13 +2218,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -2237,13 +2237,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -2294,13 +2294,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -2370,13 +2370,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -2465,10 +2465,10 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
@@ -2503,13 +2503,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D109" t="n">
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -2522,13 +2522,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -2579,13 +2579,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D113" t="n">
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -2617,13 +2617,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D115" t="n">
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -2655,13 +2655,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D117" t="n">
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -2674,10 +2674,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D120" t="n">
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -2902,13 +2902,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131">
@@ -3016,13 +3016,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D136" t="n">
         <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -3035,13 +3035,13 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D137" t="n">
         <v>0</v>
       </c>
       <c r="E137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -3111,13 +3111,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D141" t="n">
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -3149,13 +3149,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D143" t="n">
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -3168,13 +3168,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D144" t="n">
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -3225,13 +3225,13 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D147" t="n">
         <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -3244,13 +3244,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D148" t="n">
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -3396,10 +3396,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E156" t="n">
         <v>0</v>
@@ -3453,13 +3453,13 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D159" t="n">
         <v>0</v>
       </c>
       <c r="E159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -3510,13 +3510,13 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -3605,13 +3605,13 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D167" t="n">
         <v>0</v>
       </c>
       <c r="E167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -3624,13 +3624,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D168" t="n">
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -3681,13 +3681,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D171" t="n">
         <v>0</v>
       </c>
       <c r="E171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -3719,10 +3719,10 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E173" t="n">
         <v>0</v>
@@ -3776,13 +3776,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D176" t="n">
         <v>0</v>
       </c>
       <c r="E176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -3871,10 +3871,10 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E181" t="n">
         <v>0</v>
@@ -3988,10 +3988,10 @@
         <v>1</v>
       </c>
       <c r="D187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -4023,13 +4023,13 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D189" t="n">
         <v>0</v>
       </c>
       <c r="E189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -4061,10 +4061,10 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E191" t="n">
         <v>0</v>
@@ -4099,10 +4099,10 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E193" t="n">
         <v>0</v>
@@ -4156,10 +4156,10 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E196" t="n">
         <v>0</v>
@@ -4194,13 +4194,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D198" t="n">
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
@@ -4273,10 +4273,10 @@
         <v>1</v>
       </c>
       <c r="D202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
@@ -4289,13 +4289,13 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D203" t="n">
         <v>0</v>
       </c>
       <c r="E203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -4308,13 +4308,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
@@ -4346,13 +4346,13 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D206" t="n">
         <v>0</v>
       </c>
       <c r="E206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -4368,10 +4368,10 @@
         <v>1</v>
       </c>
       <c r="D207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -4422,13 +4422,13 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
@@ -4441,13 +4441,13 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D211" t="n">
         <v>0</v>
       </c>
       <c r="E211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -4479,10 +4479,10 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E213" t="n">
         <v>0</v>
@@ -4558,10 +4558,10 @@
         <v>1</v>
       </c>
       <c r="D217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -4593,10 +4593,10 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E219" t="n">
         <v>0</v>
@@ -4745,13 +4745,13 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D227" t="n">
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -4840,13 +4840,13 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D232" t="n">
         <v>0</v>
       </c>
       <c r="E232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -4897,13 +4897,13 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D235" t="n">
         <v>0</v>
       </c>
       <c r="E235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
@@ -4916,13 +4916,13 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D236" t="n">
         <v>0</v>
       </c>
       <c r="E236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
@@ -5049,13 +5049,13 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D243" t="n">
         <v>0</v>
       </c>
       <c r="E243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
@@ -5087,13 +5087,13 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D245" t="n">
         <v>0</v>
       </c>
       <c r="E245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
@@ -5182,10 +5182,10 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E250" t="n">
         <v>0</v>
@@ -5258,13 +5258,13 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D254" t="n">
         <v>0</v>
       </c>
       <c r="E254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
@@ -5296,10 +5296,10 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E256" t="n">
         <v>0</v>
@@ -5353,13 +5353,13 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D259" t="n">
         <v>0</v>
       </c>
       <c r="E259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
@@ -5391,13 +5391,13 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D261" t="n">
         <v>0</v>
       </c>
       <c r="E261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D262" t="n">
         <v>0</v>
       </c>
       <c r="E262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
@@ -5467,13 +5467,13 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D265" t="n">
         <v>0</v>
       </c>
       <c r="E265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
@@ -5486,10 +5486,10 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E266" t="n">
         <v>0</v>
@@ -5505,13 +5505,13 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D267" t="n">
         <v>0</v>
       </c>
       <c r="E267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
@@ -5524,13 +5524,13 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D268" t="n">
         <v>0</v>
       </c>
       <c r="E268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
@@ -5733,13 +5733,13 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D279" t="n">
         <v>0</v>
       </c>
       <c r="E279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
@@ -5790,10 +5790,10 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E282" t="n">
         <v>0</v>
@@ -5907,10 +5907,10 @@
         <v>1</v>
       </c>
       <c r="D288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
@@ -6018,10 +6018,10 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E294" t="n">
         <v>0</v>
@@ -6037,13 +6037,13 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D295" t="n">
         <v>0</v>
       </c>
       <c r="E295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
@@ -6151,10 +6151,10 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E301" t="n">
         <v>0</v>
@@ -6170,10 +6170,10 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E302" t="n">
         <v>0</v>
@@ -6189,13 +6189,13 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304">
@@ -6246,13 +6246,13 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D306" t="n">
         <v>0</v>
       </c>
       <c r="E306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
@@ -6303,13 +6303,13 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D309" t="n">
         <v>0</v>
       </c>
       <c r="E309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
@@ -6474,13 +6474,13 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D318" t="n">
         <v>0</v>
       </c>
       <c r="E318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
@@ -6493,13 +6493,13 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D319" t="n">
         <v>0</v>
       </c>
       <c r="E319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
@@ -6569,13 +6569,13 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D323" t="n">
         <v>0</v>
       </c>
       <c r="E323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
@@ -6588,13 +6588,13 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D324" t="n">
         <v>0</v>
       </c>
       <c r="E324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
@@ -6607,13 +6607,13 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D325" t="n">
         <v>0</v>
       </c>
       <c r="E325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326">
@@ -6702,13 +6702,13 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D330" t="n">
         <v>0</v>
       </c>
       <c r="E330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
@@ -6759,13 +6759,13 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D333" t="n">
         <v>0</v>
       </c>
       <c r="E333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334">
@@ -6778,10 +6778,10 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E334" t="n">
         <v>0</v>
@@ -6873,13 +6873,13 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D339" t="n">
         <v>0</v>
       </c>
       <c r="E339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D341" t="n">
         <v>0</v>
       </c>
       <c r="E341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
@@ -6930,13 +6930,13 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D342" t="n">
         <v>0</v>
       </c>
       <c r="E342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
@@ -6949,13 +6949,13 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D343" t="n">
         <v>0</v>
       </c>
       <c r="E343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
@@ -7006,13 +7006,13 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D346" t="n">
         <v>0</v>
       </c>
       <c r="E346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347">
@@ -7063,10 +7063,10 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E349" t="n">
         <v>0</v>
@@ -7177,13 +7177,13 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D355" t="n">
         <v>0</v>
       </c>
       <c r="E355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356">
@@ -7196,13 +7196,13 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D356" t="n">
         <v>0</v>
       </c>
       <c r="E356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
@@ -7253,13 +7253,13 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D359" t="n">
         <v>0</v>
       </c>
       <c r="E359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360">
@@ -7272,13 +7272,13 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
       </c>
       <c r="E360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361">
@@ -7348,10 +7348,10 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E364" t="n">
         <v>0</v>
@@ -7386,13 +7386,13 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D366" t="n">
         <v>0</v>
       </c>
       <c r="E366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367">
@@ -7405,13 +7405,13 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D367" t="n">
         <v>0</v>
       </c>
       <c r="E367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
@@ -7519,13 +7519,13 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D373" t="n">
         <v>0</v>
       </c>
       <c r="E373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
@@ -7633,13 +7633,13 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D379" t="n">
         <v>0</v>
       </c>
       <c r="E379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
@@ -7690,13 +7690,13 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D382" t="n">
         <v>0</v>
       </c>
       <c r="E382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383">
@@ -7728,13 +7728,13 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D384" t="n">
         <v>0</v>
       </c>
       <c r="E384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
@@ -7785,13 +7785,13 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D387" t="n">
         <v>0</v>
       </c>
       <c r="E387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388">
@@ -7804,13 +7804,13 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D388" t="n">
         <v>0</v>
       </c>
       <c r="E388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389">
@@ -7823,13 +7823,13 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D389" t="n">
         <v>0</v>
       </c>
       <c r="E389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390">
@@ -7880,13 +7880,13 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D392" t="n">
         <v>0</v>
       </c>
       <c r="E392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393">
@@ -7937,13 +7937,13 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D395" t="n">
         <v>0</v>
       </c>
       <c r="E395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396">
@@ -7994,13 +7994,13 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D398" t="n">
         <v>0</v>
       </c>
       <c r="E398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399">
@@ -8032,13 +8032,13 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D400" t="n">
         <v>0</v>
       </c>
       <c r="E400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401">
@@ -8073,10 +8073,10 @@
         <v>1</v>
       </c>
       <c r="D402" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403">
@@ -8165,13 +8165,13 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D407" t="n">
         <v>0</v>
       </c>
       <c r="E407" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408">
@@ -8203,13 +8203,13 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D409" t="n">
         <v>0</v>
       </c>
       <c r="E409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410">
@@ -8279,10 +8279,10 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E413" t="n">
         <v>0</v>
@@ -8298,13 +8298,13 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D414" t="n">
         <v>0</v>
       </c>
       <c r="E414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415">
@@ -8317,10 +8317,10 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D415" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E415" t="n">
         <v>0</v>
@@ -8355,13 +8355,13 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D417" t="n">
         <v>0</v>
       </c>
       <c r="E417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418">
@@ -8374,13 +8374,13 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D418" t="n">
         <v>0</v>
       </c>
       <c r="E418" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419">
@@ -8393,13 +8393,13 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D419" t="n">
         <v>0</v>
       </c>
       <c r="E419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420">
@@ -8412,13 +8412,13 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D420" t="n">
         <v>0</v>
       </c>
       <c r="E420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421">
@@ -8431,13 +8431,13 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D421" t="n">
         <v>0</v>
       </c>
       <c r="E421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422">
@@ -8488,13 +8488,13 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D424" t="n">
         <v>0</v>
       </c>
       <c r="E424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425">
@@ -8507,13 +8507,13 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D425" t="n">
         <v>0</v>
       </c>
       <c r="E425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426">
@@ -8583,13 +8583,13 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D429" t="n">
         <v>0</v>
       </c>
       <c r="E429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430">
@@ -8602,13 +8602,13 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D430" t="n">
         <v>0</v>
       </c>
       <c r="E430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431">
@@ -8735,13 +8735,13 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D437" t="n">
         <v>0</v>
       </c>
       <c r="E437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438">
@@ -8849,13 +8849,13 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D443" t="n">
         <v>0</v>
       </c>
       <c r="E443" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444">
@@ -8868,13 +8868,13 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D444" t="n">
         <v>0</v>
       </c>
       <c r="E444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445">
@@ -8963,13 +8963,13 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450">
@@ -9020,13 +9020,13 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D452" t="n">
         <v>0</v>
       </c>
       <c r="E452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453">
@@ -9039,10 +9039,10 @@
         </is>
       </c>
       <c r="C453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E453" t="n">
         <v>0</v>
@@ -9115,13 +9115,13 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D457" t="n">
         <v>0</v>
       </c>
       <c r="E457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458">
@@ -9153,13 +9153,13 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D459" t="n">
         <v>0</v>
       </c>
       <c r="E459" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460">
@@ -9191,13 +9191,13 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D461" t="n">
         <v>0</v>
       </c>
       <c r="E461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462">
@@ -9210,10 +9210,10 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E462" t="n">
         <v>1</v>
@@ -9229,13 +9229,13 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D463" t="n">
         <v>0</v>
       </c>
       <c r="E463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464">
@@ -9248,13 +9248,13 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D464" t="n">
         <v>0</v>
       </c>
       <c r="E464" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465">
@@ -9324,13 +9324,13 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D468" t="n">
         <v>0</v>
       </c>
       <c r="E468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469">
@@ -9343,13 +9343,13 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D469" t="n">
         <v>0</v>
       </c>
       <c r="E469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470">
@@ -9362,13 +9362,13 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D470" t="n">
         <v>0</v>
       </c>
       <c r="E470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471">
@@ -9419,13 +9419,13 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D473" t="n">
         <v>0</v>
       </c>
       <c r="E473" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474">
@@ -9457,13 +9457,13 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D475" t="n">
         <v>0</v>
       </c>
       <c r="E475" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476">
@@ -9476,13 +9476,13 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D476" t="n">
         <v>0</v>
       </c>
       <c r="E476" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477">
@@ -9590,13 +9590,13 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D482" t="n">
         <v>0</v>
       </c>
       <c r="E482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483">
@@ -9647,10 +9647,10 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E485" t="n">
         <v>0</v>
@@ -9666,13 +9666,13 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D486" t="n">
         <v>0</v>
       </c>
       <c r="E486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487">
@@ -9875,13 +9875,13 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D497" t="n">
         <v>0</v>
       </c>
       <c r="E497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498">
@@ -9894,13 +9894,13 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D498" t="n">
         <v>0</v>
       </c>
       <c r="E498" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499">
@@ -10046,13 +10046,13 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D506" t="n">
         <v>0</v>
       </c>
       <c r="E506" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507">
@@ -10065,10 +10065,10 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E507" t="n">
         <v>0</v>
@@ -10084,13 +10084,13 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D508" t="n">
         <v>0</v>
       </c>
       <c r="E508" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509">
@@ -10141,13 +10141,13 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D511" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512">
@@ -10160,13 +10160,13 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D512" t="n">
         <v>0</v>
       </c>
       <c r="E512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513">
@@ -10179,13 +10179,13 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D513" t="n">
         <v>0</v>
       </c>
       <c r="E513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514">
@@ -10255,13 +10255,13 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D517" t="n">
         <v>0</v>
       </c>
       <c r="E517" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518">
@@ -10350,10 +10350,10 @@
         </is>
       </c>
       <c r="C522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E522" t="n">
         <v>0</v>
@@ -10388,13 +10388,13 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D524" t="n">
         <v>0</v>
       </c>
       <c r="E524" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525">
@@ -10410,10 +10410,10 @@
         <v>1</v>
       </c>
       <c r="D525" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E525" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526">
@@ -10426,13 +10426,13 @@
         </is>
       </c>
       <c r="C526" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D526" t="n">
         <v>0</v>
       </c>
       <c r="E526" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527">
@@ -10540,13 +10540,13 @@
         </is>
       </c>
       <c r="C532" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D532" t="n">
         <v>0</v>
       </c>
       <c r="E532" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533">
@@ -10578,13 +10578,13 @@
         </is>
       </c>
       <c r="C534" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D534" t="n">
         <v>0</v>
       </c>
       <c r="E534" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535">
@@ -10597,13 +10597,13 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536">
@@ -10749,13 +10749,13 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D543" t="n">
         <v>0</v>
       </c>
       <c r="E543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544">
@@ -10768,13 +10768,13 @@
         </is>
       </c>
       <c r="C544" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D544" t="n">
         <v>0</v>
       </c>
       <c r="E544" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545">
@@ -10806,13 +10806,13 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D546" t="n">
         <v>0</v>
       </c>
       <c r="E546" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547">
@@ -10920,13 +10920,13 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D552" t="n">
         <v>0</v>
       </c>
       <c r="E552" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553">
@@ -10958,13 +10958,13 @@
         </is>
       </c>
       <c r="C554" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D554" t="n">
         <v>0</v>
       </c>
       <c r="E554" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555">
@@ -11034,10 +11034,10 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E558" t="n">
         <v>0</v>
@@ -11262,13 +11262,13 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D570" t="n">
         <v>0</v>
       </c>
       <c r="E570" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571">
@@ -11300,13 +11300,13 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D572" t="n">
         <v>0</v>
       </c>
       <c r="E572" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573">
@@ -11376,10 +11376,10 @@
         </is>
       </c>
       <c r="C576" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D576" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E576" t="n">
         <v>0</v>
@@ -11547,13 +11547,13 @@
         </is>
       </c>
       <c r="C585" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D585" t="n">
         <v>0</v>
       </c>
       <c r="E585" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586">
@@ -11626,10 +11626,10 @@
         <v>1</v>
       </c>
       <c r="D589" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E589" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590">
@@ -11642,13 +11642,13 @@
         </is>
       </c>
       <c r="C590" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D590" t="n">
         <v>0</v>
       </c>
       <c r="E590" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591">
@@ -11718,10 +11718,10 @@
         </is>
       </c>
       <c r="C594" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D594" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E594" t="n">
         <v>0</v>
@@ -11794,10 +11794,10 @@
         </is>
       </c>
       <c r="C598" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D598" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E598" t="n">
         <v>0</v>
@@ -11851,13 +11851,13 @@
         </is>
       </c>
       <c r="C601" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D601" t="n">
         <v>0</v>
       </c>
       <c r="E601" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602">
@@ -11927,13 +11927,13 @@
         </is>
       </c>
       <c r="C605" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D605" t="n">
         <v>0</v>
       </c>
       <c r="E605" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606">
@@ -12098,13 +12098,13 @@
         </is>
       </c>
       <c r="C614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D614" t="n">
         <v>0</v>
       </c>
       <c r="E614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615">
@@ -12174,13 +12174,13 @@
         </is>
       </c>
       <c r="C618" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D618" t="n">
         <v>0</v>
       </c>
       <c r="E618" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619">
@@ -12231,13 +12231,13 @@
         </is>
       </c>
       <c r="C621" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D621" t="n">
         <v>0</v>
       </c>
       <c r="E621" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622">
@@ -12288,13 +12288,13 @@
         </is>
       </c>
       <c r="C624" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D624" t="n">
         <v>0</v>
       </c>
       <c r="E624" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625">
@@ -12345,10 +12345,10 @@
         </is>
       </c>
       <c r="C627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E627" t="n">
         <v>0</v>
@@ -12402,13 +12402,13 @@
         </is>
       </c>
       <c r="C630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D630" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E630" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631">
@@ -12459,10 +12459,10 @@
         </is>
       </c>
       <c r="C633" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D633" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E633" t="n">
         <v>0</v>
@@ -12497,13 +12497,13 @@
         </is>
       </c>
       <c r="C635" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D635" t="n">
         <v>0</v>
       </c>
       <c r="E635" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636">
@@ -12573,13 +12573,13 @@
         </is>
       </c>
       <c r="C639" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D639" t="n">
         <v>0</v>
       </c>
       <c r="E639" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640">
@@ -12649,10 +12649,10 @@
         </is>
       </c>
       <c r="C643" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D643" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E643" t="n">
         <v>0</v>
@@ -12668,13 +12668,13 @@
         </is>
       </c>
       <c r="C644" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D644" t="n">
         <v>0</v>
       </c>
       <c r="E644" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645">
@@ -12744,13 +12744,13 @@
         </is>
       </c>
       <c r="C648" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D648" t="n">
         <v>0</v>
       </c>
       <c r="E648" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649">
@@ -12858,13 +12858,13 @@
         </is>
       </c>
       <c r="C654" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D654" t="n">
         <v>0</v>
       </c>
       <c r="E654" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655">
@@ -12953,13 +12953,13 @@
         </is>
       </c>
       <c r="C659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D659" t="n">
         <v>0</v>
       </c>
       <c r="E659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660">
@@ -13048,13 +13048,13 @@
         </is>
       </c>
       <c r="C664" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D664" t="n">
         <v>0</v>
       </c>
       <c r="E664" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665">
@@ -13067,13 +13067,13 @@
         </is>
       </c>
       <c r="C665" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D665" t="n">
         <v>0</v>
       </c>
       <c r="E665" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666">
@@ -13143,10 +13143,10 @@
         </is>
       </c>
       <c r="C669" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D669" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E669" t="n">
         <v>0</v>
@@ -13162,10 +13162,10 @@
         </is>
       </c>
       <c r="C670" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D670" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E670" t="n">
         <v>0</v>
@@ -13181,10 +13181,10 @@
         </is>
       </c>
       <c r="C671" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D671" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E671" t="n">
         <v>0</v>
@@ -13219,10 +13219,10 @@
         </is>
       </c>
       <c r="C673" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D673" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E673" t="n">
         <v>0</v>
@@ -13447,13 +13447,13 @@
         </is>
       </c>
       <c r="C685" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D685" t="n">
         <v>0</v>
       </c>
       <c r="E685" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686">
@@ -13485,13 +13485,13 @@
         </is>
       </c>
       <c r="C687" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D687" t="n">
         <v>0</v>
       </c>
       <c r="E687" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688">
@@ -13523,10 +13523,10 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D689" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E689" t="n">
         <v>0</v>
@@ -13580,10 +13580,10 @@
         </is>
       </c>
       <c r="C692" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D692" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E692" t="n">
         <v>0</v>
@@ -13751,10 +13751,10 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D701" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E701" t="n">
         <v>0</v>
@@ -13770,13 +13770,13 @@
         </is>
       </c>
       <c r="C702" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D702" t="n">
         <v>0</v>
       </c>
       <c r="E702" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703">
@@ -13865,10 +13865,10 @@
         </is>
       </c>
       <c r="C707" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D707" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E707" t="n">
         <v>0</v>
@@ -13979,13 +13979,13 @@
         </is>
       </c>
       <c r="C713" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D713" t="n">
         <v>0</v>
       </c>
       <c r="E713" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714">
@@ -14017,13 +14017,13 @@
         </is>
       </c>
       <c r="C715" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D715" t="n">
         <v>0</v>
       </c>
       <c r="E715" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716">
@@ -14188,13 +14188,13 @@
         </is>
       </c>
       <c r="C724" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D724" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E724" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725">
@@ -14207,10 +14207,10 @@
         </is>
       </c>
       <c r="C725" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D725" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E725" t="n">
         <v>0</v>
@@ -14245,13 +14245,13 @@
         </is>
       </c>
       <c r="C727" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D727" t="n">
         <v>0</v>
       </c>
       <c r="E727" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728">
@@ -14283,10 +14283,10 @@
         </is>
       </c>
       <c r="C729" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D729" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E729" t="n">
         <v>0</v>
@@ -14302,10 +14302,10 @@
         </is>
       </c>
       <c r="C730" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D730" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E730" t="n">
         <v>0</v>
@@ -14359,13 +14359,13 @@
         </is>
       </c>
       <c r="C733" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D733" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E733" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734">
@@ -14416,10 +14416,10 @@
         </is>
       </c>
       <c r="C736" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D736" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E736" t="n">
         <v>0</v>
@@ -14435,13 +14435,13 @@
         </is>
       </c>
       <c r="C737" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D737" t="n">
         <v>0</v>
       </c>
       <c r="E737" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738">
@@ -14454,13 +14454,13 @@
         </is>
       </c>
       <c r="C738" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D738" t="n">
         <v>0</v>
       </c>
       <c r="E738" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739">
@@ -14549,13 +14549,13 @@
         </is>
       </c>
       <c r="C743" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D743" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E743" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744">
@@ -14720,13 +14720,13 @@
         </is>
       </c>
       <c r="C752" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D752" t="n">
         <v>0</v>
       </c>
       <c r="E752" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="753">
@@ -14739,13 +14739,13 @@
         </is>
       </c>
       <c r="C753" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D753" t="n">
         <v>0</v>
       </c>
       <c r="E753" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="754">
@@ -14758,13 +14758,13 @@
         </is>
       </c>
       <c r="C754" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D754" t="n">
         <v>0</v>
       </c>
       <c r="E754" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755">
@@ -14815,13 +14815,13 @@
         </is>
       </c>
       <c r="C757" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D757" t="n">
         <v>0</v>
       </c>
       <c r="E757" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758">
@@ -14834,13 +14834,13 @@
         </is>
       </c>
       <c r="C758" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D758" t="n">
         <v>0</v>
       </c>
       <c r="E758" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759">
@@ -14872,13 +14872,13 @@
         </is>
       </c>
       <c r="C760" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D760" t="n">
         <v>0</v>
       </c>
       <c r="E760" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761">
@@ -14891,10 +14891,10 @@
         </is>
       </c>
       <c r="C761" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D761" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E761" t="n">
         <v>0</v>
@@ -14910,13 +14910,13 @@
         </is>
       </c>
       <c r="C762" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D762" t="n">
         <v>0</v>
       </c>
       <c r="E762" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="763">
@@ -15043,10 +15043,10 @@
         </is>
       </c>
       <c r="C769" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D769" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E769" t="n">
         <v>0</v>
@@ -15176,13 +15176,13 @@
         </is>
       </c>
       <c r="C776" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D776" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E776" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="777">
@@ -15233,13 +15233,13 @@
         </is>
       </c>
       <c r="C779" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D779" t="n">
         <v>0</v>
       </c>
       <c r="E779" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780">
@@ -15271,10 +15271,10 @@
         </is>
       </c>
       <c r="C781" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D781" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E781" t="n">
         <v>0</v>
@@ -15309,13 +15309,13 @@
         </is>
       </c>
       <c r="C783" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D783" t="n">
         <v>0</v>
       </c>
       <c r="E783" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="784">
@@ -15385,13 +15385,13 @@
         </is>
       </c>
       <c r="C787" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D787" t="n">
         <v>0</v>
       </c>
       <c r="E787" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="788">
@@ -15423,13 +15423,13 @@
         </is>
       </c>
       <c r="C789" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D789" t="n">
         <v>0</v>
       </c>
       <c r="E789" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790">
@@ -15461,13 +15461,13 @@
         </is>
       </c>
       <c r="C791" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D791" t="n">
         <v>0</v>
       </c>
       <c r="E791" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792">
@@ -15483,10 +15483,10 @@
         <v>1</v>
       </c>
       <c r="D792" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E792" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="793">
@@ -15746,13 +15746,13 @@
         </is>
       </c>
       <c r="C806" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D806" t="n">
         <v>0</v>
       </c>
       <c r="E806" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807">
@@ -15784,13 +15784,13 @@
         </is>
       </c>
       <c r="C808" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D808" t="n">
         <v>0</v>
       </c>
       <c r="E808" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="809">
@@ -15860,13 +15860,13 @@
         </is>
       </c>
       <c r="C812" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D812" t="n">
         <v>0</v>
       </c>
       <c r="E812" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813">
@@ -16145,13 +16145,13 @@
         </is>
       </c>
       <c r="C827" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D827" t="n">
         <v>0</v>
       </c>
       <c r="E827" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828">
@@ -16183,13 +16183,13 @@
         </is>
       </c>
       <c r="C829" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D829" t="n">
         <v>0</v>
       </c>
       <c r="E829" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830">
@@ -16202,10 +16202,10 @@
         </is>
       </c>
       <c r="C830" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D830" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E830" t="n">
         <v>0</v>
@@ -16411,13 +16411,13 @@
         </is>
       </c>
       <c r="C841" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D841" t="n">
         <v>0</v>
       </c>
       <c r="E841" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842">
@@ -16449,13 +16449,13 @@
         </is>
       </c>
       <c r="C843" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D843" t="n">
         <v>0</v>
       </c>
       <c r="E843" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="844">
@@ -16544,13 +16544,13 @@
         </is>
       </c>
       <c r="C848" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D848" t="n">
         <v>0</v>
       </c>
       <c r="E848" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849">
@@ -16582,13 +16582,13 @@
         </is>
       </c>
       <c r="C850" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D850" t="n">
         <v>0</v>
       </c>
       <c r="E850" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="851">
@@ -16677,13 +16677,13 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D855" t="n">
         <v>0</v>
       </c>
       <c r="E855" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856">
@@ -16734,13 +16734,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D858" t="n">
         <v>0</v>
       </c>
       <c r="E858" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859">
@@ -16772,13 +16772,13 @@
         </is>
       </c>
       <c r="C860" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D860" t="n">
         <v>0</v>
       </c>
       <c r="E860" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="861">
@@ -16867,10 +16867,10 @@
         </is>
       </c>
       <c r="C865" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D865" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E865" t="n">
         <v>0</v>
@@ -16924,13 +16924,13 @@
         </is>
       </c>
       <c r="C868" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D868" t="n">
         <v>0</v>
       </c>
       <c r="E868" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="869">
@@ -17000,13 +17000,13 @@
         </is>
       </c>
       <c r="C872" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D872" t="n">
         <v>0</v>
       </c>
       <c r="E872" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="873">
@@ -17057,13 +17057,13 @@
         </is>
       </c>
       <c r="C875" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D875" t="n">
         <v>0</v>
       </c>
       <c r="E875" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="876">
@@ -17076,10 +17076,10 @@
         </is>
       </c>
       <c r="C876" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D876" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E876" t="n">
         <v>0</v>
@@ -17095,13 +17095,13 @@
         </is>
       </c>
       <c r="C877" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D877" t="n">
         <v>0</v>
       </c>
       <c r="E877" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="878">
@@ -17117,10 +17117,10 @@
         <v>1</v>
       </c>
       <c r="D878" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E878" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="879">
@@ -17171,13 +17171,13 @@
         </is>
       </c>
       <c r="C881" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D881" t="n">
         <v>0</v>
       </c>
       <c r="E881" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="882">
@@ -17269,10 +17269,10 @@
         <v>1</v>
       </c>
       <c r="D886" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E886" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="887">
@@ -17437,13 +17437,13 @@
         </is>
       </c>
       <c r="C895" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D895" t="n">
         <v>0</v>
       </c>
       <c r="E895" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="896">
@@ -17551,13 +17551,13 @@
         </is>
       </c>
       <c r="C901" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D901" t="n">
         <v>0</v>
       </c>
       <c r="E901" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902">
@@ -17798,10 +17798,10 @@
         </is>
       </c>
       <c r="C914" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D914" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E914" t="n">
         <v>0</v>
@@ -18482,10 +18482,10 @@
         </is>
       </c>
       <c r="C950" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D950" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E950" t="n">
         <v>0</v>
